--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:59:08+00:00</t>
+    <t>2021-09-14T17:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:59:16+00:00</t>
+    <t>2021-12-13T19:23:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:23:29+00:00</t>
+    <t>2021-12-13T19:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:24:22+00:00</t>
+    <t>2022-05-27T12:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:40:13+00:00</t>
+    <t>2022-05-27T12:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T12:41:17+00:00</t>
+    <t>2022-08-10T15:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:01:35+00:00</t>
+    <t>2022-08-10T15:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T15:02:39+00:00</t>
+    <t>2022-08-23T15:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T15:00:44+00:00</t>
+    <t>2022-09-13T16:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T16:54:38+00:00</t>
+    <t>2022-10-11T14:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:45:04+00:00</t>
+    <t>2022-10-11T14:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T14:47:05+00:00</t>
+    <t>2022-10-31T22:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:37+00:00</t>
+    <t>2022-10-31T22:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:57+00:00</t>
+    <t>2022-11-28T21:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:06:44+00:00</t>
+    <t>2022-11-28T21:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:07:57+00:00</t>
+    <t>2022-12-09T17:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T17:30:30+00:00</t>
+    <t>2023-09-15T20:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-ncit.xlsx
+++ b/CodeSystem-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T20:59:49+00:00</t>
+    <t>2023-09-15T21:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
